--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33C6B3F5-5470-4054-BF97-6F3C07C701DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4BC2B24-ED7E-4F1D-94A6-983F713B31C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -2201,9 +2201,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:W887"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O887" sqref="O887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -66167,6 +66167,9 @@
       <c r="O885">
         <v>2.11</v>
       </c>
+      <c r="P885">
+        <v>3.18</v>
+      </c>
       <c r="Q885">
         <v>3.52</v>
       </c>
@@ -66174,9 +66177,9 @@
         <f t="shared" si="39"/>
         <v>2.11</v>
       </c>
-      <c r="S885" t="str">
+      <c r="S885">
         <f t="shared" si="40"/>
-        <v/>
+        <v>3.18</v>
       </c>
       <c r="T885">
         <f t="shared" si="41"/>
@@ -66301,9 +66304,12 @@
       <c r="N887" s="6" t="d">
         <v>2024-06-22</v>
       </c>
-      <c r="R887" t="str">
+      <c r="O887">
+        <v>2.25</v>
+      </c>
+      <c r="R887">
         <f t="shared" si="39"/>
-        <v/>
+        <v>2.25</v>
       </c>
       <c r="S887" t="str">
         <f t="shared" si="40"/>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4BC2B24-ED7E-4F1D-94A6-983F713B31C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F51D39B-68C4-4CEF-95EF-541ABED6B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -2201,9 +2201,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:W887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O887" sqref="O887"/>
+      <selection pane="bottomLeft" activeCell="Q886" sqref="Q886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A75BA88B-90D6-4F0C-B0B6-F11822ED903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66457E96-9CB0-4FAD-A4C1-C6AC32F06A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -2205,8 +2205,8 @@
   <dimension ref="A1:X887"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P359" sqref="P359"/>
+      <pane ySplit="1" topLeftCell="A870" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q888" sqref="Q888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -68969,6 +68969,9 @@
       <c r="P887">
         <v>2.25</v>
       </c>
+      <c r="Q887">
+        <v>3.27</v>
+      </c>
       <c r="R887">
         <v>3.69</v>
       </c>
@@ -68976,9 +68979,9 @@
         <f t="shared" si="39"/>
         <v>2.25</v>
       </c>
-      <c r="T887" t="str">
+      <c r="T887">
         <f t="shared" si="40"/>
-        <v/>
+        <v>3.27</v>
       </c>
       <c r="U887">
         <f t="shared" si="41"/>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66457E96-9CB0-4FAD-A4C1-C6AC32F06A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{363AF9C7-5234-457A-981B-C55D87E88DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1689" uniqueCount="572">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1690" uniqueCount="572">
   <si>
     <t>Battlefield</t>
   </si>
@@ -2204,9 +2204,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:X887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A870" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q888" sqref="Q888"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C699" sqref="C699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -55022,6 +55022,13 @@
       <c r="A699">
         <v>696</v>
       </c>
+      <c r="B699">
+        <v>3</v>
+      </c>
+      <c r="C699" t="str">
+        <f>VLOOKUP(B699,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Movie</v>
+      </c>
       <c r="D699">
         <v>8</v>
       </c>
@@ -69206,9 +69213,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B66899-18B6-4DCB-A553-02C6C65D4321}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -69238,6 +69247,14 @@
       </c>
       <c r="B4" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB381018-3D74-4D11-BEDE-14908B86026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6233B89A-5552-406A-8ADE-8577C2FBD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2588" uniqueCount="926">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2590" uniqueCount="928">
   <si>
     <t>Battlefield</t>
   </si>
@@ -2846,6 +2846,12 @@
   </si>
   <si>
     <t>WikiFormatDescription</t>
+  </si>
+  <si>
+    <t>Joy to the World</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Joy_to_the_World_(Doctor_Who)</t>
   </si>
 </sst>
 </file>
@@ -3266,11 +3272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
-  <dimension ref="A1:AC887"/>
+  <dimension ref="A1:AC888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB700" sqref="AB700"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A872" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U888" sqref="U888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -80335,7 +80341,7 @@
         <v>5.85</v>
       </c>
       <c r="U836">
-        <f t="shared" ref="U836:U887" si="39">IF(ISBLANK(R836),"",ROUND(R836*Y836,2))</f>
+        <f t="shared" ref="U836:U888" si="39">IF(ISBLANK(R836),"",ROUND(R836*Y836,2))</f>
         <v>3.68</v>
       </c>
       <c r="V836">
@@ -85100,6 +85106,87 @@
       </c>
       <c r="AC887" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="888" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A888" s="3">
+        <v>884</v>
+      </c>
+      <c r="B888" s="3">
+        <v>4</v>
+      </c>
+      <c r="C888" s="3" t="str">
+        <f>VLOOKUP(B888,Era!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D888" s="3">
+        <v>2</v>
+      </c>
+      <c r="E888" s="3" t="str">
+        <f>VLOOKUP(D888,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Special</v>
+      </c>
+      <c r="F888" s="3">
+        <v>15</v>
+      </c>
+      <c r="G888" s="3" t="str">
+        <f>VLOOKUP(F888,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="I888" s="3">
+        <v>4</v>
+      </c>
+      <c r="J888" s="3" t="str">
+        <f>VLOOKUP(I888,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Special</v>
+      </c>
+      <c r="K888" s="3">
+        <v>312</v>
+      </c>
+      <c r="M888" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="N888" s="3">
+        <v>1</v>
+      </c>
+      <c r="P888" s="7" t="d">
+        <v>2024-12-25</v>
+      </c>
+      <c r="Q888" s="3">
+        <v>55</v>
+      </c>
+      <c r="R888" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="U888" s="3">
+        <f t="shared" si="39"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="V888" s="3" t="str">
+        <f t="shared" ref="V888" si="42">IF(ISBLANK(S888),"",ROUND(S888*Y888,2))</f>
+        <v/>
+      </c>
+      <c r="W888" s="3" t="str">
+        <f t="shared" ref="W888" si="43">IF(ISBLANK(T888),"",ROUND(T888*Y888,2))</f>
+        <v/>
+      </c>
+      <c r="X888" s="3">
+        <f>VLOOKUP(YEAR(P888),Populations!$A$3:$B$999,2,0)</f>
+        <v>68081792</v>
+      </c>
+      <c r="Y888" s="3">
+        <f>(Calculations!B1/X888)</f>
+        <v>1</v>
+      </c>
+      <c r="AA888" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB888" s="3" t="str">
+        <f>VLOOKUP(AA888,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AC888" s="3" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{818DB60D-F3B7-41C8-A030-F7D336A7377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{192A1FE6-6C54-4EC6-A2FF-213DE3E96F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
+    <workbookView xWindow="5820" yWindow="2547" windowWidth="19200" windowHeight="13066" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Episodes" sheetId="2" r:id="rId1"/>
@@ -3274,9 +3274,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:AD888"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E594" sqref="E594"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB605" sqref="AB605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -61191,11 +61191,11 @@
       </c>
       <c r="AA604" s="3"/>
       <c r="AB604" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC604" s="3" t="str">
         <f>VLOOKUP(AB604,WikiFormats!$A$3:$B$999,2,0)</f>
-        <v>Story</v>
+        <v>Episode</v>
       </c>
       <c r="AD604" s="3" t="s">
         <v>714</v>
@@ -85646,11 +85646,11 @@
         <v>536</v>
       </c>
       <c r="AB866" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC866" s="3" t="str">
         <f>VLOOKUP(AB866,WikiFormats!$A$3:$B$999,2,0)</f>
-        <v>Story</v>
+        <v>Episode</v>
       </c>
       <c r="AD866" s="3" t="s">
         <v>899</v>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF3AEAF6-F8ED-4028-A760-05797C75AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4582E634-25C6-417E-B466-154AD23D91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2594" uniqueCount="930">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2598" uniqueCount="934">
   <si>
     <t>Battlefield</t>
   </si>
@@ -2858,6 +2858,18 @@
   </si>
   <si>
     <t>The Robot Revolution</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lux_(Doctor_Who)</t>
+  </si>
+  <si>
+    <t>The Well</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Well_(Doctor_Who)</t>
   </si>
 </sst>
 </file>
@@ -3278,11 +3290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
-  <dimension ref="A1:AD889"/>
+  <dimension ref="A1:AD891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A859" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A889" sqref="A889"/>
+      <pane ySplit="1" topLeftCell="A865" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A891" sqref="A891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -87791,17 +87803,23 @@
       <c r="S889">
         <v>2</v>
       </c>
+      <c r="T889">
+        <v>3.36</v>
+      </c>
+      <c r="U889">
+        <v>3.57</v>
+      </c>
       <c r="V889">
         <f t="shared" ref="V889" si="44">IF(ISBLANK(S889),"",ROUND(S889*Z889,2))</f>
         <v>2</v>
       </c>
-      <c r="W889" t="str">
+      <c r="W889">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="X889" t="str">
+        <v>3.36</v>
+      </c>
+      <c r="X889">
         <f t="shared" si="43"/>
-        <v/>
+        <v>3.57</v>
       </c>
       <c r="Y889">
         <f>VLOOKUP(YEAR(Q889),Populations!$A$3:$B$999,2,0)</f>
@@ -87820,6 +87838,186 @@
       </c>
       <c r="AD889" t="s">
         <v>928</v>
+      </c>
+    </row>
+    <row r="890" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A890">
+        <v>886</v>
+      </c>
+      <c r="B890">
+        <v>4</v>
+      </c>
+      <c r="C890" t="str">
+        <f>VLOOKUP(B890,Eras!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890" t="str">
+        <f>VLOOKUP(D890,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="F890">
+        <v>15</v>
+      </c>
+      <c r="G890" t="str">
+        <f>VLOOKUP(F890,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="H890">
+        <v>15</v>
+      </c>
+      <c r="I890">
+        <v>3</v>
+      </c>
+      <c r="J890" t="str">
+        <f>VLOOKUP(I890,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="K890">
+        <v>314</v>
+      </c>
+      <c r="L890">
+        <v>2</v>
+      </c>
+      <c r="M890" t="s">
+        <v>930</v>
+      </c>
+      <c r="N890">
+        <v>1</v>
+      </c>
+      <c r="P890">
+        <v>1</v>
+      </c>
+      <c r="Q890" s="6" t="d">
+        <v>2025-04-19</v>
+      </c>
+      <c r="R890">
+        <v>44</v>
+      </c>
+      <c r="S890">
+        <v>1.58</v>
+      </c>
+      <c r="V890">
+        <f t="shared" ref="V890" si="45">IF(ISBLANK(S890),"",ROUND(S890*Z890,2))</f>
+        <v>1.58</v>
+      </c>
+      <c r="W890" t="str">
+        <f t="shared" ref="W890" si="46">IF(ISBLANK(T890),"",ROUND(T890*Z890,2))</f>
+        <v/>
+      </c>
+      <c r="X890" t="str">
+        <f t="shared" ref="X890" si="47">IF(ISBLANK(U890),"",ROUND(U890*Z890,2))</f>
+        <v/>
+      </c>
+      <c r="Y890">
+        <f>VLOOKUP(YEAR(Q890),Populations!$A$3:$B$999,2,0)</f>
+        <v>68304932</v>
+      </c>
+      <c r="Z890">
+        <f>(Calculations!B1/Y890)</f>
+        <v>1</v>
+      </c>
+      <c r="AB890">
+        <v>2</v>
+      </c>
+      <c r="AC890" t="str">
+        <f>VLOOKUP(AB890,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AD890" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="891" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A891">
+        <v>887</v>
+      </c>
+      <c r="B891">
+        <v>4</v>
+      </c>
+      <c r="C891" t="str">
+        <f>VLOOKUP(B891,Eras!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891" t="str">
+        <f>VLOOKUP(D891,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="F891">
+        <v>15</v>
+      </c>
+      <c r="G891" t="str">
+        <f>VLOOKUP(F891,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="H891">
+        <v>15</v>
+      </c>
+      <c r="I891">
+        <v>3</v>
+      </c>
+      <c r="J891" t="str">
+        <f>VLOOKUP(I891,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="K891">
+        <v>315</v>
+      </c>
+      <c r="L891">
+        <v>3</v>
+      </c>
+      <c r="M891" t="s">
+        <v>932</v>
+      </c>
+      <c r="N891">
+        <v>1</v>
+      </c>
+      <c r="P891">
+        <v>1</v>
+      </c>
+      <c r="Q891" s="6" t="d">
+        <v>2025-04-26</v>
+      </c>
+      <c r="R891">
+        <v>48</v>
+      </c>
+      <c r="S891">
+        <v>1.86</v>
+      </c>
+      <c r="V891">
+        <f t="shared" ref="V891" si="48">IF(ISBLANK(S891),"",ROUND(S891*Z891,2))</f>
+        <v>1.86</v>
+      </c>
+      <c r="W891" t="str">
+        <f t="shared" ref="W891" si="49">IF(ISBLANK(T891),"",ROUND(T891*Z891,2))</f>
+        <v/>
+      </c>
+      <c r="X891" t="str">
+        <f t="shared" ref="X891" si="50">IF(ISBLANK(U891),"",ROUND(U891*Z891,2))</f>
+        <v/>
+      </c>
+      <c r="Y891">
+        <f>VLOOKUP(YEAR(Q891),Populations!$A$3:$B$999,2,0)</f>
+        <v>68304932</v>
+      </c>
+      <c r="Z891">
+        <f>(Calculations!B1/Y891)</f>
+        <v>1</v>
+      </c>
+      <c r="AB891">
+        <v>2</v>
+      </c>
+      <c r="AC891" t="str">
+        <f>VLOOKUP(AB891,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AD891" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4582E634-25C6-417E-B466-154AD23D91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3BF08FB7-D3EF-43DB-81F2-30FEE3DED0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -3292,9 +3292,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:AD891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A865" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A891" sqref="A891"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U891" sqref="U891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -87899,6 +87899,9 @@
       <c r="S890">
         <v>1.58</v>
       </c>
+      <c r="U890">
+        <v>3</v>
+      </c>
       <c r="V890">
         <f t="shared" ref="V890" si="45">IF(ISBLANK(S890),"",ROUND(S890*Z890,2))</f>
         <v>1.58</v>
@@ -87907,9 +87910,9 @@
         <f t="shared" ref="W890" si="46">IF(ISBLANK(T890),"",ROUND(T890*Z890,2))</f>
         <v/>
       </c>
-      <c r="X890" t="str">
+      <c r="X890">
         <f t="shared" ref="X890" si="47">IF(ISBLANK(U890),"",ROUND(U890*Z890,2))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Y890">
         <f>VLOOKUP(YEAR(Q890),Populations!$A$3:$B$999,2,0)</f>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3BF08FB7-D3EF-43DB-81F2-30FEE3DED0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF2105AD-7214-4A26-927E-054DCF08A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -3294,7 +3294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U891" sqref="U891"/>
+      <selection pane="bottomLeft" activeCell="T891" sqref="T891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -87899,6 +87899,9 @@
       <c r="S890">
         <v>1.58</v>
       </c>
+      <c r="T890">
+        <v>2.69</v>
+      </c>
       <c r="U890">
         <v>3</v>
       </c>
@@ -87906,9 +87909,9 @@
         <f t="shared" ref="V890" si="45">IF(ISBLANK(S890),"",ROUND(S890*Z890,2))</f>
         <v>1.58</v>
       </c>
-      <c r="W890" t="str">
+      <c r="W890">
         <f t="shared" ref="W890" si="46">IF(ISBLANK(T890),"",ROUND(T890*Z890,2))</f>
-        <v/>
+        <v>2.69</v>
       </c>
       <c r="X890">
         <f t="shared" ref="X890" si="47">IF(ISBLANK(U890),"",ROUND(U890*Z890,2))</f>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF2105AD-7214-4A26-927E-054DCF08A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F66B23E-06E6-4A63-81EB-7718CFC7A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2598" uniqueCount="934">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2600" uniqueCount="936">
   <si>
     <t>Battlefield</t>
   </si>
@@ -2870,6 +2870,12 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Well_(Doctor_Who)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lucky_Day_(Doctor_Who)</t>
+  </si>
+  <si>
+    <t>Lucky Day</t>
   </si>
 </sst>
 </file>
@@ -3290,11 +3296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
-  <dimension ref="A1:AD891"/>
+  <dimension ref="A1:AD892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T891" sqref="T891"/>
+      <selection pane="bottomLeft" activeCell="J892" sqref="J892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -88026,6 +88032,96 @@
         <v>933</v>
       </c>
     </row>
+    <row r="892" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A892">
+        <v>888</v>
+      </c>
+      <c r="B892">
+        <v>4</v>
+      </c>
+      <c r="C892" t="str">
+        <f>VLOOKUP(B892,Eras!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892" t="str">
+        <f>VLOOKUP(D892,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="F892">
+        <v>15</v>
+      </c>
+      <c r="G892" t="str">
+        <f>VLOOKUP(F892,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="H892">
+        <v>15</v>
+      </c>
+      <c r="I892">
+        <v>3</v>
+      </c>
+      <c r="J892" t="str">
+        <f>VLOOKUP(I892,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="K892">
+        <v>316</v>
+      </c>
+      <c r="L892">
+        <v>4</v>
+      </c>
+      <c r="M892" t="s">
+        <v>935</v>
+      </c>
+      <c r="N892">
+        <v>1</v>
+      </c>
+      <c r="P892">
+        <v>1</v>
+      </c>
+      <c r="Q892" s="6" t="d">
+        <v>2025-05-03</v>
+      </c>
+      <c r="R892">
+        <v>46</v>
+      </c>
+      <c r="S892">
+        <v>1.5</v>
+      </c>
+      <c r="V892">
+        <f t="shared" ref="V892" si="51">IF(ISBLANK(S892),"",ROUND(S892*Z892,2))</f>
+        <v>1.5</v>
+      </c>
+      <c r="W892" t="str">
+        <f t="shared" ref="W892" si="52">IF(ISBLANK(T892),"",ROUND(T892*Z892,2))</f>
+        <v/>
+      </c>
+      <c r="X892" t="str">
+        <f t="shared" ref="X892" si="53">IF(ISBLANK(U892),"",ROUND(U892*Z892,2))</f>
+        <v/>
+      </c>
+      <c r="Y892">
+        <f>VLOOKUP(YEAR(Q892),Populations!$A$3:$B$999,2,0)</f>
+        <v>68304932</v>
+      </c>
+      <c r="Z892">
+        <f>(Calculations!B1/Y892)</f>
+        <v>1</v>
+      </c>
+      <c r="AB892">
+        <v>2</v>
+      </c>
+      <c r="AC892" t="str">
+        <f>VLOOKUP(AB892,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AD892" t="s">
+        <v>934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F66B23E-06E6-4A63-81EB-7718CFC7A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD0313E1-45DD-4E32-9F85-1346DD4684FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -3298,9 +3298,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
   <dimension ref="A1:AD892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J892" sqref="J892"/>
+      <selection pane="bottomLeft" activeCell="T892" sqref="T892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -88001,17 +88001,23 @@
       <c r="S891">
         <v>1.86</v>
       </c>
+      <c r="T891">
+        <v>2.91</v>
+      </c>
+      <c r="U891">
+        <v>3.23</v>
+      </c>
       <c r="V891">
         <f t="shared" ref="V891" si="48">IF(ISBLANK(S891),"",ROUND(S891*Z891,2))</f>
         <v>1.86</v>
       </c>
-      <c r="W891" t="str">
+      <c r="W891">
         <f t="shared" ref="W891" si="49">IF(ISBLANK(T891),"",ROUND(T891*Z891,2))</f>
-        <v/>
-      </c>
-      <c r="X891" t="str">
+        <v>2.91</v>
+      </c>
+      <c r="X891">
         <f t="shared" ref="X891" si="50">IF(ISBLANK(U891),"",ROUND(U891*Z891,2))</f>
-        <v/>
+        <v>3.23</v>
       </c>
       <c r="Y891">
         <f>VLOOKUP(YEAR(Q891),Populations!$A$3:$B$999,2,0)</f>

--- a/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
+++ b/DoctorWhoRatings.WebClient/wwwroot/data/DoctorWhoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Personal\GitHubRepos\doctor-who-ratings\DoctorWhoRatings.WebClient\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD0313E1-45DD-4E32-9F85-1346DD4684FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0AC82992-5C34-484A-8D5D-D46F6B970992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{79C5864F-570D-459B-A9D3-4650086D0E3E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2600" uniqueCount="936">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2604" uniqueCount="940">
   <si>
     <t>Battlefield</t>
   </si>
@@ -2876,6 +2876,18 @@
   </si>
   <si>
     <t>Lucky Day</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Story_%26_the_Engine</t>
+  </si>
+  <si>
+    <t>The Story and the Engine</t>
+  </si>
+  <si>
+    <t>The Interstellar Song Contest</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Interstellar_Song_Contest</t>
   </si>
 </sst>
 </file>
@@ -3296,11 +3308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1EB88-18DF-4495-9368-D4C1B5B3A750}">
-  <dimension ref="A1:AD892"/>
+  <dimension ref="A1:AD894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T892" sqref="T892"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A870" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U894" sqref="U894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -87894,7 +87906,7 @@
         <v>1</v>
       </c>
       <c r="P890">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q890" s="6" t="d">
         <v>2025-04-19</v>
@@ -87990,7 +88002,7 @@
         <v>1</v>
       </c>
       <c r="P891">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q891" s="6" t="d">
         <v>2025-04-26</v>
@@ -88086,7 +88098,7 @@
         <v>1</v>
       </c>
       <c r="P892">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q892" s="6" t="d">
         <v>2025-05-03</v>
@@ -88096,18 +88108,24 @@
       </c>
       <c r="S892">
         <v>1.5</v>
+      </c>
+      <c r="T892">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U892">
+        <v>2.8</v>
       </c>
       <c r="V892">
         <f t="shared" ref="V892" si="51">IF(ISBLANK(S892),"",ROUND(S892*Z892,2))</f>
         <v>1.5</v>
       </c>
-      <c r="W892" t="str">
+      <c r="W892">
         <f t="shared" ref="W892" si="52">IF(ISBLANK(T892),"",ROUND(T892*Z892,2))</f>
-        <v/>
-      </c>
-      <c r="X892" t="str">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X892">
         <f t="shared" ref="X892" si="53">IF(ISBLANK(U892),"",ROUND(U892*Z892,2))</f>
-        <v/>
+        <v>2.8</v>
       </c>
       <c r="Y892">
         <f>VLOOKUP(YEAR(Q892),Populations!$A$3:$B$999,2,0)</f>
@@ -88126,6 +88144,192 @@
       </c>
       <c r="AD892" t="s">
         <v>934</v>
+      </c>
+    </row>
+    <row r="893" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A893">
+        <v>889</v>
+      </c>
+      <c r="B893">
+        <v>4</v>
+      </c>
+      <c r="C893" t="str">
+        <f>VLOOKUP(B893,Eras!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893" t="str">
+        <f>VLOOKUP(D893,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="F893">
+        <v>15</v>
+      </c>
+      <c r="G893" t="str">
+        <f>VLOOKUP(F893,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="H893">
+        <v>15</v>
+      </c>
+      <c r="I893">
+        <v>3</v>
+      </c>
+      <c r="J893" t="str">
+        <f>VLOOKUP(I893,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="K893">
+        <v>317</v>
+      </c>
+      <c r="L893">
+        <v>5</v>
+      </c>
+      <c r="M893" t="s">
+        <v>937</v>
+      </c>
+      <c r="N893">
+        <v>1</v>
+      </c>
+      <c r="P893">
+        <v>5</v>
+      </c>
+      <c r="Q893" s="6" t="d">
+        <v>2025-05-10</v>
+      </c>
+      <c r="R893">
+        <v>47</v>
+      </c>
+      <c r="S893">
+        <v>1.59</v>
+      </c>
+      <c r="T893">
+        <v>2.46</v>
+      </c>
+      <c r="U893">
+        <v>2.7</v>
+      </c>
+      <c r="V893">
+        <f t="shared" ref="V893" si="54">IF(ISBLANK(S893),"",ROUND(S893*Z893,2))</f>
+        <v>1.59</v>
+      </c>
+      <c r="W893">
+        <f t="shared" ref="W893" si="55">IF(ISBLANK(T893),"",ROUND(T893*Z893,2))</f>
+        <v>2.46</v>
+      </c>
+      <c r="X893">
+        <f t="shared" ref="X893" si="56">IF(ISBLANK(U893),"",ROUND(U893*Z893,2))</f>
+        <v>2.7</v>
+      </c>
+      <c r="Y893">
+        <f>VLOOKUP(YEAR(Q893),Populations!$A$3:$B$999,2,0)</f>
+        <v>68304932</v>
+      </c>
+      <c r="Z893">
+        <f>(Calculations!B1/Y893)</f>
+        <v>1</v>
+      </c>
+      <c r="AB893">
+        <v>2</v>
+      </c>
+      <c r="AC893" t="str">
+        <f>VLOOKUP(AB893,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AD893" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="894" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A894">
+        <v>890</v>
+      </c>
+      <c r="B894">
+        <v>4</v>
+      </c>
+      <c r="C894" t="str">
+        <f>VLOOKUP(B894,Eras!$A$3:$B$999,2,0)</f>
+        <v>New/Disney</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" t="str">
+        <f>VLOOKUP(D894,EpisodeFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="F894">
+        <v>15</v>
+      </c>
+      <c r="G894" t="str">
+        <f>VLOOKUP(F894,Doctors!$A$3:$B$999,2,0)</f>
+        <v>Ncuti Gatwa</v>
+      </c>
+      <c r="H894">
+        <v>15</v>
+      </c>
+      <c r="I894">
+        <v>3</v>
+      </c>
+      <c r="J894" t="str">
+        <f>VLOOKUP(I894,SeasonFormats!$A$3:$B$999,2,0)</f>
+        <v>Series</v>
+      </c>
+      <c r="K894">
+        <v>318</v>
+      </c>
+      <c r="L894">
+        <v>6</v>
+      </c>
+      <c r="M894" t="s">
+        <v>938</v>
+      </c>
+      <c r="N894">
+        <v>1</v>
+      </c>
+      <c r="P894">
+        <v>6</v>
+      </c>
+      <c r="Q894" s="6" t="d">
+        <v>2025-05-17</v>
+      </c>
+      <c r="R894">
+        <v>47</v>
+      </c>
+      <c r="S894">
+        <v>2.57</v>
+      </c>
+      <c r="V894">
+        <f t="shared" ref="V894" si="57">IF(ISBLANK(S894),"",ROUND(S894*Z894,2))</f>
+        <v>2.57</v>
+      </c>
+      <c r="W894" t="str">
+        <f t="shared" ref="W894" si="58">IF(ISBLANK(T894),"",ROUND(T894*Z894,2))</f>
+        <v/>
+      </c>
+      <c r="X894" t="str">
+        <f t="shared" ref="X894" si="59">IF(ISBLANK(U894),"",ROUND(U894*Z894,2))</f>
+        <v/>
+      </c>
+      <c r="Y894">
+        <f>VLOOKUP(YEAR(Q894),Populations!$A$3:$B$999,2,0)</f>
+        <v>68304932</v>
+      </c>
+      <c r="Z894">
+        <f>(Calculations!B1/Y894)</f>
+        <v>1</v>
+      </c>
+      <c r="AB894">
+        <v>2</v>
+      </c>
+      <c r="AC894" t="str">
+        <f>VLOOKUP(AB894,WikiFormats!$A$3:$B$999,2,0)</f>
+        <v>Episode</v>
+      </c>
+      <c r="AD894" t="s">
+        <v>939</v>
       </c>
     </row>
   </sheetData>
